--- a/pred_ohlcv/54_21/2020-01-25 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 PLY ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-4729932.297</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-8992795.669899998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-8992661.884999998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-9008016.705599997</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-9052070.386999996</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-11862813.1222</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-17317098.98338421</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-16030692.42738329</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-16783297.08914651</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-16786097.08914651</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-16790162.39474651</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-16790862.39474651</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-16966608.76454651</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-16678770.73254651</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-17518174.60874721</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-17509354.28694721</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-17368047.22604721</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-17370047.22604721</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-17366790.54444721</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-17367790.54444721</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-17367790.54444721</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-16951209.26764721</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-16951082.26764721</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-16951082.26764721</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-17048526.62944721</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-17324364.279123</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-17461531.541623</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-17461531.541623</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-17461531.541623</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-17291357.85353639</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-17307357.85353639</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-17307357.85353639</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-17352846.63493639</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-17316874.92633639</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 PLY ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-4730059.297</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-4729932.297</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4735110.016100001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4686654.6215</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4686953.6215</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-4689943.6215</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4685604.1135</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4711001.2144</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5140317.7481</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-5140317.7481</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-8811318.032299999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-8992795.669899998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-8992661.884999998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-9008016.705599997</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-9052070.386999996</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-16030692.42738329</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-16697628.53028329</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-16698202.66048329</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-16745278.26538329</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-16745278.26538329</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-16738875.10498329</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-16781197.08914651</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-16783297.08914651</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-16786097.08914651</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-16790162.39474651</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-16790862.39474651</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-16966608.76454651</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-16678770.73254651</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-17518174.60874721</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-17509354.28694721</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-17368047.22604721</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-17364790.54444721</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-17367790.54444721</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-17367790.54444721</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-16951209.26764721</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-16951082.26764721</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-16968220.26134722</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-17324364.279123</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-17461531.541623</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-17291357.85353639</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-17307357.85353639</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-17307357.85353639</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-17352846.63493639</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-17316874.92633639</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
